--- a/8_Propiedades/Propiedades_Informacion.xlsx
+++ b/8_Propiedades/Propiedades_Informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/8_Propiedades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BFBE98-167C-4C9D-9A27-4B944663A5E9}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85B9767-00B1-495E-ABDE-74D6A54539DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="214">
   <si>
     <t>Descripcion</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Descuento</t>
   </si>
 </sst>
 </file>
@@ -723,23 +726,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -785,14 +812,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8D581FB-C849-4731-84E7-26D71BD62B20}" name="Table1" displayName="Table1" ref="A1:S27" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:S27" xr:uid="{B8D581FB-C849-4731-84E7-26D71BD62B20}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C73A3D54-16FE-4ECC-8E8D-88604EF9210E}" name="Desplegar" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{102D52DF-0A3A-4CEA-86BF-423C97C64973}" name="Titulo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4D750BF8-8EE6-444F-99C2-CE6AC09734B0}" name="Titulo_Ingles" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8D581FB-C849-4731-84E7-26D71BD62B20}" name="Table1" displayName="Table1" ref="A1:T27" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:T27" xr:uid="{B8D581FB-C849-4731-84E7-26D71BD62B20}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{C73A3D54-16FE-4ECC-8E8D-88604EF9210E}" name="Desplegar" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{102D52DF-0A3A-4CEA-86BF-423C97C64973}" name="Titulo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4D750BF8-8EE6-444F-99C2-CE6AC09734B0}" name="Titulo_Ingles" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{5120EAA3-481D-42AA-A32E-78C040174138}" name="Condominio"/>
-    <tableColumn id="4" xr3:uid="{AE890149-CA18-4597-A447-F096F3203DC0}" name="Precio" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{AE890149-CA18-4597-A447-F096F3203DC0}" name="Precio" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="20" xr3:uid="{F8EB34D7-B7EA-47F6-B1EF-E120A5A98394}" name="Descuento" dataDxfId="0" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{DBD4FBCF-9B84-41A8-B97E-F5BB06A9CEA8}" name="Metros_Cuadrados"/>
     <tableColumn id="6" xr3:uid="{CE877B17-997B-4C69-BF75-A5E1506A1760}" name="Descripcion"/>
     <tableColumn id="7" xr3:uid="{CD0E0A82-972B-4BD9-A73B-36FC76113184}" name="Descripcion_Ingles"/>
@@ -1075,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,15 +1116,15 @@
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" customWidth="1"/>
-    <col min="9" max="9" width="77.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="23" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.21875" customWidth="1"/>
+    <col min="10" max="10" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1112,50 +1140,53 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1168,29 +1199,32 @@
       <c r="E2" s="1">
         <v>32220000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
         <v>537</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>118</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1203,29 +1237,30 @@
       <c r="E3" s="1">
         <v>30780000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4"/>
+      <c r="G3">
         <v>513</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>121</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>122</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1238,32 +1273,35 @@
       <c r="E4" s="1">
         <v>30900000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
         <v>515</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>124</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>125</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>126</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1276,26 +1314,27 @@
       <c r="E5" s="1">
         <v>30900000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4"/>
+      <c r="G5">
         <v>515</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1308,47 +1347,50 @@
       <c r="E6" s="1">
         <v>28620000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>64</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>130</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>132</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>133</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>134</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>135</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>136</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>138</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1361,38 +1403,39 @@
       <c r="E7" s="1">
         <v>27300000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4"/>
+      <c r="G7">
         <v>455</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>82</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>131</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>140</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>141</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>142</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>143</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1405,32 +1448,33 @@
       <c r="E8" s="1">
         <v>36648000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4"/>
+      <c r="G8">
         <v>305</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>83</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>145</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>158</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>157</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1443,26 +1487,29 @@
       <c r="E9" s="1">
         <v>74280000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
         <v>619</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>84</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>146</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1475,35 +1522,36 @@
       <c r="E10" s="1">
         <v>72100000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4"/>
+      <c r="G10">
         <v>515</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>147</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>161</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>162</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>163</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1516,32 +1564,33 @@
       <c r="E11" s="1">
         <v>66780000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4"/>
+      <c r="G11">
         <v>477</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>148</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>165</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>166</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1554,23 +1603,26 @@
       <c r="E12" s="1">
         <v>61040000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
         <v>436</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1583,32 +1635,33 @@
       <c r="E13" s="1">
         <v>66780000</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4"/>
+      <c r="G13">
         <v>477</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>149</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>168</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>169</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1621,35 +1674,36 @@
       <c r="E14" s="1">
         <v>67340000</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4"/>
+      <c r="G14">
         <v>481</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>89</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>171</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>172</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>173</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1662,35 +1716,36 @@
       <c r="E15" s="1">
         <v>59640000</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4"/>
+      <c r="G15">
         <v>426</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>73</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>151</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>175</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>176</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>177</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1703,23 +1758,24 @@
       <c r="E16" s="1">
         <v>48300000</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4"/>
+      <c r="G16">
         <v>345</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>74</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>91</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1732,32 +1788,33 @@
       <c r="E17" s="1">
         <v>56000000</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4"/>
+      <c r="G17">
         <v>400</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>75</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>152</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>179</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>180</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1770,32 +1827,33 @@
       <c r="E18" s="1">
         <v>59640000</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4"/>
+      <c r="G18">
         <v>426</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>93</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>29</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>153</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>182</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>183</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1808,35 +1866,36 @@
       <c r="E19" s="1">
         <v>67200000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4"/>
+      <c r="G19">
         <v>480</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>91</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>154</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>160</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>185</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>186</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>190</v>
       </c>
@@ -1849,35 +1908,36 @@
       <c r="E20" s="1">
         <v>54600000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4"/>
+      <c r="G20">
         <v>390</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>75</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>92</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>192</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>193</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>194</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>195</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1890,29 +1950,30 @@
       <c r="E21" s="1">
         <v>53200000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4"/>
+      <c r="G21">
         <v>380</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>76</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>93</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>29</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>155</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>188</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>100</v>
       </c>
@@ -1925,29 +1986,30 @@
       <c r="E22" s="1">
         <v>131060000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4"/>
+      <c r="G22">
         <v>6553</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>101</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>99</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>197</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>198</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>112</v>
       </c>
@@ -1960,26 +2022,27 @@
       <c r="E23" s="1">
         <v>124140000</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4"/>
+      <c r="G23">
         <v>6207</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>102</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>95</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>99</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>201</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>113</v>
       </c>
@@ -1992,29 +2055,30 @@
       <c r="E24" s="1">
         <v>120940000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4"/>
+      <c r="G24">
         <v>6047</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>103</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>96</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>99</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>202</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>203</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>114</v>
       </c>
@@ -2027,29 +2091,30 @@
       <c r="E25" s="1">
         <v>147800000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4"/>
+      <c r="G25">
         <v>7390</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>104</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>97</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>99</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>207</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>206</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>115</v>
       </c>
@@ -2062,32 +2127,33 @@
       <c r="E26" s="1">
         <v>126040000</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4"/>
+      <c r="G26">
         <v>6302</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>105</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>99</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>208</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>209</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>210</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>212</v>
       </c>
@@ -2103,28 +2169,29 @@
       <c r="E27" s="1">
         <v>126040000</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4"/>
+      <c r="G27">
         <v>6302</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>105</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>98</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>99</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>208</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>209</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>210</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>211</v>
       </c>
     </row>
